--- a/模块 3：展项类型体系.xlsx
+++ b/模块 3：展项类型体系.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KnowledgeBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A1C16-73BB-4EC5-A8BE-102ED4F21ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,369 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
+  <si>
+    <t>模块 A3：展项类型体系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价基础</t>
+  </si>
+  <si>
+    <t>评价ID</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>评价对象</t>
+  </si>
+  <si>
+    <t>关联的展项或案例</t>
+  </si>
+  <si>
+    <t>评价时间</t>
+  </si>
+  <si>
+    <t>日期时间</t>
+  </si>
+  <si>
+    <t>评价者</t>
+  </si>
+  <si>
+    <t>评价人员</t>
+  </si>
+  <si>
+    <t>评价维度</t>
+  </si>
+  <si>
+    <t>体验性评分</t>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>1-5分</t>
+  </si>
+  <si>
+    <t>体验性说明</t>
+  </si>
+  <si>
+    <t>富文本</t>
+  </si>
+  <si>
+    <t>评分理由和具体表现</t>
+  </si>
+  <si>
+    <t>易理解性评分</t>
+  </si>
+  <si>
+    <t>易理解性说明</t>
+  </si>
+  <si>
+    <t>科学性评分</t>
+  </si>
+  <si>
+    <t>科学性说明</t>
+  </si>
+  <si>
+    <t>可维护性评分</t>
+  </si>
+  <si>
+    <t>可维护性说明</t>
+  </si>
+  <si>
+    <t>创新度评分</t>
+  </si>
+  <si>
+    <t>创新度说明</t>
+  </si>
+  <si>
+    <t>可复制性评分</t>
+  </si>
+  <si>
+    <t>可复制性说明</t>
+  </si>
+  <si>
+    <t>成本分析</t>
+  </si>
+  <si>
+    <t>实际成本</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>单位：万元</t>
+  </si>
+  <si>
+    <t>成本档位</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>0-1万/1-5万/5-10万/10-30万/30-100万/100万以上</t>
+  </si>
+  <si>
+    <t>10-30万</t>
+  </si>
+  <si>
+    <t>成本构成分析</t>
+  </si>
+  <si>
+    <t>表格</t>
+  </si>
+  <si>
+    <t>技术/软件/结构/安装/备件等占比</t>
+  </si>
+  <si>
+    <t>成本效益比</t>
+  </si>
+  <si>
+    <t>低/中/高/极高</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>成本控制建议</t>
+  </si>
+  <si>
+    <t>成本优化建议</t>
+  </si>
+  <si>
+    <t>用户反馈</t>
+  </si>
+  <si>
+    <t>用户满意度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>用户调查满意度</t>
+  </si>
+  <si>
+    <t>平均使用时长</t>
+  </si>
+  <si>
+    <t>单位：分钟</t>
+  </si>
+  <si>
+    <t>重复使用率</t>
+  </si>
+  <si>
+    <t>用户重复使用的比例</t>
+  </si>
+  <si>
+    <t>用户建议</t>
+  </si>
+  <si>
+    <t>文本数组</t>
+  </si>
+  <si>
+    <t>收集的用户建议</t>
+  </si>
+  <si>
+    <t>用户问题</t>
+  </si>
+  <si>
+    <t>用户遇到的问题</t>
+  </si>
+  <si>
+    <t>技术评价</t>
+  </si>
+  <si>
+    <t>技术稳定性</t>
+  </si>
+  <si>
+    <t>低/中/高</t>
+  </si>
+  <si>
+    <t>故障频率</t>
+  </si>
+  <si>
+    <t>极少/偶尔/经常/频繁</t>
+  </si>
+  <si>
+    <t>偶尔</t>
+  </si>
+  <si>
+    <t>平均修复时间</t>
+  </si>
+  <si>
+    <t>单位：小时</t>
+  </si>
+  <si>
+    <t>维护复杂度</t>
+  </si>
+  <si>
+    <t>简单/中等/复杂</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>综合评价</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>浮点数</t>
+  </si>
+  <si>
+    <t>加权平均分</t>
+  </si>
+  <si>
+    <t>等级评定</t>
+  </si>
+  <si>
+    <t>不推荐/一般/推荐/强烈推荐</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>优势分析</t>
+  </si>
+  <si>
+    <t>要点列表</t>
+  </si>
+  <si>
+    <t>主要优势</t>
+  </si>
+  <si>
+    <t>["交互流畅","教育性强"]</t>
+  </si>
+  <si>
+    <t>不足分析</t>
+  </si>
+  <si>
+    <t>主要不足</t>
+  </si>
+  <si>
+    <t>["维护较复杂","成本偏高"]</t>
+  </si>
+  <si>
+    <t>改进建议</t>
+  </si>
+  <si>
+    <t>具体改进建议</t>
+  </si>
+  <si>
+    <t>适用性分析</t>
+  </si>
+  <si>
+    <t>适用场景和条件</t>
+  </si>
+  <si>
+    <t>关联分析</t>
+  </si>
+  <si>
+    <t>对比案例</t>
+  </si>
+  <si>
+    <t>UUID数组</t>
+  </si>
+  <si>
+    <t>用于对比的案例</t>
+  </si>
+  <si>
+    <t>相关评价</t>
+  </si>
+  <si>
+    <t>相关的其他评价</t>
+  </si>
+  <si>
+    <t>评价工具</t>
+  </si>
+  <si>
+    <t>评价模板</t>
+  </si>
+  <si>
+    <t>使用的评价模板</t>
+  </si>
+  <si>
+    <t>评价方法</t>
+  </si>
+  <si>
+    <t>采用的评价方法</t>
+  </si>
+  <si>
+    <t>数据来源</t>
+  </si>
+  <si>
+    <t>来源对象数组</t>
+  </si>
+  <si>
+    <t>评价数据来源</t>
+  </si>
+  <si>
+    <t>价值分析</t>
+  </si>
+  <si>
+    <t>教育价值</t>
+  </si>
+  <si>
+    <t>教育方面的价值</t>
+  </si>
+  <si>
+    <t>展示价值</t>
+  </si>
+  <si>
+    <t>展示方面的价值</t>
+  </si>
+  <si>
+    <t>品牌价值</t>
+  </si>
+  <si>
+    <t>品牌建设价值</t>
+  </si>
+  <si>
+    <t>商业价值</t>
+  </si>
+  <si>
+    <t>商业转化价值</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +390,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="苹方-简 中粗体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="苹方 常规"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1115"/>
+      <name val="苹方 常规"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,17 +447,441 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0F1115"/>
+        <name val="苹方 常规"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0F1115"/>
+        <name val="苹方 常规"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0F1115"/>
+        <name val="苹方 常规"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0F1115"/>
+        <name val="苹方 常规"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0F1115"/>
+        <name val="苹方 常规"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0F1115"/>
+        <name val="苹方 常规"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="苹方 常规"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1F4E79"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +892,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F4273A3-3C30-489B-853F-D9D4A2948730}" name="表2_456" displayName="表2_456" ref="A2:E47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A2:E47" xr:uid="{8F4273A3-3C30-489B-853F-D9D4A2948730}"/>
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{0B2E97D5-EF44-4155-AB18-F3225E552D95}" name="字段组" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{520107DD-7CE6-4DD7-B4D8-D1FE33155D52}" name="字段名称" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C2EF9B13-C705-4449-B2C7-4C3D083BB1FE}" name="数据类型" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{82B9137C-1396-46A2-B5F5-EC82E885FF15}" name="详细说明" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{11F1467E-AC23-4854-9A45-1DD30DB96AFA}" name="示例值" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1170,749 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45371.604166666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>